--- a/SolarSys.xlsx
+++ b/SolarSys.xlsx
@@ -233,16 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,6 +249,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +572,10 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,29 +592,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="e">
@@ -622,23 +622,23 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>57000000</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>4.8840000000000003</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <f>B4*1.5</f>
         <v>85500000</v>
       </c>
@@ -650,24 +650,28 @@
         <f>C4/10</f>
         <v>0.48840000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="L4" t="e">
+        <f>1/D4</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>110000000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>12.346</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G12" si="0">B5*1.5</f>
         <v>165000000</v>
       </c>
@@ -680,23 +684,23 @@
         <v>1.2345999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>148000000</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>12.709</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>222000000</v>
       </c>
@@ -709,23 +713,23 @@
         <v>1.2708999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>230000000</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>6.7670000000000003</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>345000000</v>
       </c>
@@ -738,23 +742,23 @@
         <v>0.67670000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>780000000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>142.64699999999999</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>1170000000</v>
       </c>
@@ -767,23 +771,23 @@
         <v>14.264699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>1438000000</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>124.309</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>2157000000</v>
       </c>
@@ -796,23 +800,23 @@
         <v>12.430899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>2970000000</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>51.767000000000003</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>4455000000</v>
       </c>
@@ -825,23 +829,23 @@
         <v>5.1767000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>4568000000</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>49.137999999999998</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>6852000000</v>
       </c>
@@ -854,23 +858,23 @@
         <v>4.9138000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>5934000000</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>2.3780000000000001</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>8901000000</v>
       </c>

--- a/SolarSys.xlsx
+++ b/SolarSys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Gezegen</t>
   </si>
@@ -54,76 +54,49 @@
     <t>Merkür</t>
   </si>
   <si>
-    <t>0,2 yıl</t>
-  </si>
-  <si>
     <t>176 gün</t>
   </si>
   <si>
     <t>Venüs</t>
   </si>
   <si>
-    <t>0,6 yıl</t>
-  </si>
-  <si>
     <t>243 gün</t>
   </si>
   <si>
     <t>Dünya</t>
   </si>
   <si>
-    <t>1 yıl</t>
-  </si>
-  <si>
     <t>24 saat</t>
   </si>
   <si>
     <t>Mars</t>
   </si>
   <si>
-    <t>1,8 yıl</t>
-  </si>
-  <si>
     <t>Jüpiter</t>
   </si>
   <si>
-    <t>11,6 yıl</t>
-  </si>
-  <si>
     <t>9 saat 54 dakika</t>
   </si>
   <si>
     <t>Satürn</t>
   </si>
   <si>
-    <t>29,5 yıl</t>
-  </si>
-  <si>
     <t>10 saat 37 dakika</t>
   </si>
   <si>
     <t>Uranüs</t>
   </si>
   <si>
-    <t>84,1 yıl</t>
-  </si>
-  <si>
     <t>18 saat 23 dakika</t>
   </si>
   <si>
     <t>Neptün</t>
   </si>
   <si>
-    <t>164,8 yıl</t>
-  </si>
-  <si>
     <t>16 saat 28 dakika</t>
   </si>
   <si>
     <t>Pluton</t>
-  </si>
-  <si>
-    <t>248,3 yıl</t>
   </si>
   <si>
     <t>6 gün 9 saat</t>
@@ -562,7 +535,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,11 +605,11 @@
       <c r="C4" s="5">
         <v>4.8840000000000003</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="7">
         <f>B4*1.5</f>
@@ -650,14 +623,14 @@
         <f>C4/10</f>
         <v>0.48840000000000006</v>
       </c>
-      <c r="L4" t="e">
+      <c r="L4">
         <f>1/D4</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>110000000</v>
@@ -665,11 +638,11 @@
       <c r="C5" s="5">
         <v>12.346</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
+      <c r="D5" s="5">
+        <v>0.6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G12" si="0">B5*1.5</f>
@@ -683,10 +656,14 @@
         <f t="shared" ref="J5:J12" si="2">C5/10</f>
         <v>1.2345999999999999</v>
       </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L12" si="3">1/D5</f>
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>148000000</v>
@@ -694,11 +671,11 @@
       <c r="C6" s="5">
         <v>12.709</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -712,10 +689,14 @@
         <f t="shared" si="2"/>
         <v>1.2708999999999999</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>230000000</v>
@@ -723,11 +704,11 @@
       <c r="C7" s="5">
         <v>6.7670000000000003</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
+      <c r="D7" s="5">
+        <v>1.8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
@@ -741,10 +722,14 @@
         <f t="shared" si="2"/>
         <v>0.67670000000000008</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>780000000</v>
@@ -752,11 +737,11 @@
       <c r="C8" s="5">
         <v>142.64699999999999</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
+      <c r="D8" s="5">
+        <v>11.6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -770,10 +755,14 @@
         <f t="shared" si="2"/>
         <v>14.264699999999999</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>8.6206896551724144E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>1438000000</v>
@@ -781,11 +770,11 @@
       <c r="C9" s="5">
         <v>124.309</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
+      <c r="D9" s="5">
+        <v>29.5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
@@ -799,10 +788,14 @@
         <f t="shared" si="2"/>
         <v>12.430899999999999</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>2970000000</v>
@@ -810,11 +803,11 @@
       <c r="C10" s="5">
         <v>51.767000000000003</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
+      <c r="D10" s="5">
+        <v>84.1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
@@ -828,10 +821,14 @@
         <f t="shared" si="2"/>
         <v>5.1767000000000003</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>1.1890606420927468E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>4568000000</v>
@@ -839,11 +836,11 @@
       <c r="C11" s="5">
         <v>49.137999999999998</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
+      <c r="D11" s="5">
+        <v>164.8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
@@ -857,10 +854,14 @@
         <f t="shared" si="2"/>
         <v>4.9138000000000002</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>6.0679611650485436E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6">
         <v>5934000000</v>
@@ -868,11 +869,11 @@
       <c r="C12" s="5">
         <v>2.3780000000000001</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
+      <c r="D12" s="5">
+        <v>248.3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
@@ -885,6 +886,10 @@
       <c r="J12">
         <f t="shared" si="2"/>
         <v>0.23780000000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>4.0273862263391054E-3</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">

--- a/SolarSys.xlsx
+++ b/SolarSys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Gezegen</t>
   </si>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,6 +222,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <col min="7" max="7" width="19" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,28 +568,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
@@ -595,7 +598,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -627,8 +630,15 @@
         <f>1/D4</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f>120*L4</f>
+        <v>600</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -660,8 +670,15 @@
         <f t="shared" ref="L5:L12" si="3">1/D5</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f t="shared" ref="M5:M12" si="4">120*L5</f>
+        <v>200</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -693,8 +710,15 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -726,8 +750,15 @@
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -759,8 +790,15 @@
         <f t="shared" si="3"/>
         <v>8.6206896551724144E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>10.344827586206897</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -792,8 +830,15 @@
         <f t="shared" si="3"/>
         <v>3.3898305084745763E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>4.0677966101694913</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -825,8 +870,15 @@
         <f t="shared" si="3"/>
         <v>1.1890606420927468E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>1.4268727705112962</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -858,8 +910,15 @@
         <f t="shared" si="3"/>
         <v>6.0679611650485436E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.72815533980582525</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -890,6 +949,13 @@
       <c r="L12">
         <f t="shared" si="3"/>
         <v>4.0273862263391054E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.48328634716069263</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">

--- a/SolarSys.xlsx
+++ b/SolarSys.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Gezegen</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>6 gün 9 saat</t>
+  </si>
+  <si>
+    <t>OrbitAngles</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +555,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +574,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -585,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -598,7 +608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -637,8 +647,11 @@
       <c r="N4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -677,8 +690,11 @@
       <c r="N5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -717,8 +733,11 @@
       <c r="N6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -757,8 +776,11 @@
       <c r="N7" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -797,8 +819,11 @@
       <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -837,8 +862,14 @@
       <c r="N9" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -877,8 +908,11 @@
       <c r="N10" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -917,8 +951,11 @@
       <c r="N11" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -956,6 +993,9 @@
       </c>
       <c r="N12" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="O12">
+        <v>17.2</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">

--- a/SolarSys.xlsx
+++ b/SolarSys.xlsx
@@ -154,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,11 +203,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,6 +249,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,11 +685,11 @@
         <v>14</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G12" si="0">B5*1.5</f>
+        <f t="shared" ref="G5:G13" si="0">B5*1.5</f>
         <v>165000000</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H12" si="1">G5/100000</f>
+        <f t="shared" ref="H5:H13" si="1">G5/100000</f>
         <v>1650</v>
       </c>
       <c r="J5">
@@ -680,11 +697,11 @@
         <v>1.2345999999999999</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L12" si="3">1/D5</f>
+        <f t="shared" ref="L5:L13" si="3">1/D5</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M12" si="4">120*L5</f>
+        <f t="shared" ref="M5:M13" si="4">120*L5</f>
         <v>200</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -996,6 +1013,30 @@
       </c>
       <c r="O12">
         <v>17.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>384400</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7.47945E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>576600</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>5.766</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>13.369967043031238</v>
+      </c>
+      <c r="M13">
+        <f>120*L13</f>
+        <v>1604.3960451637486</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
